--- a/appendix/f1-macro-mean.xlsx
+++ b/appendix/f1-macro-mean.xlsx
@@ -485,22 +485,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.255</v>
+        <v>0.285</v>
       </c>
       <c r="D2" t="n">
-        <v>0.412</v>
+        <v>0.44</v>
       </c>
       <c r="E2" t="n">
-        <v>0.476</v>
+        <v>0.478</v>
       </c>
       <c r="F2" t="n">
-        <v>0.521</v>
+        <v>0.54</v>
       </c>
       <c r="G2" t="n">
-        <v>0.452</v>
+        <v>0.469</v>
       </c>
       <c r="H2" t="n">
-        <v>0.461</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.325</v>
+        <v>0.304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.429</v>
+        <v>0.434</v>
       </c>
       <c r="E3" t="n">
-        <v>0.453</v>
+        <v>0.465</v>
       </c>
       <c r="F3" t="n">
-        <v>0.505</v>
+        <v>0.516</v>
       </c>
       <c r="G3" t="n">
-        <v>0.434</v>
+        <v>0.455</v>
       </c>
       <c r="H3" t="n">
-        <v>0.45</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.335</v>
+        <v>0.355</v>
       </c>
       <c r="D4" t="n">
-        <v>0.435</v>
+        <v>0.469</v>
       </c>
       <c r="E4" t="n">
-        <v>0.498</v>
+        <v>0.516</v>
       </c>
       <c r="F4" t="n">
-        <v>0.539</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.513</v>
+        <v>0.538</v>
       </c>
       <c r="H4" t="n">
-        <v>0.535</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.368</v>
+        <v>0.363</v>
       </c>
       <c r="D5" t="n">
-        <v>0.446</v>
+        <v>0.477</v>
       </c>
       <c r="E5" t="n">
-        <v>0.484</v>
+        <v>0.516</v>
       </c>
       <c r="F5" t="n">
-        <v>0.537</v>
+        <v>0.554</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.509</v>
       </c>
       <c r="H5" t="n">
-        <v>0.512</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.325</v>
+        <v>0.304</v>
       </c>
       <c r="D6" t="n">
-        <v>0.429</v>
+        <v>0.44</v>
       </c>
       <c r="E6" t="n">
-        <v>0.476</v>
+        <v>0.478</v>
       </c>
       <c r="F6" t="n">
-        <v>0.521</v>
+        <v>0.54</v>
       </c>
       <c r="G6" t="n">
-        <v>0.452</v>
+        <v>0.469</v>
       </c>
       <c r="H6" t="n">
-        <v>0.461</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.368</v>
+        <v>0.363</v>
       </c>
       <c r="D7" t="n">
-        <v>0.446</v>
+        <v>0.477</v>
       </c>
       <c r="E7" t="n">
-        <v>0.498</v>
+        <v>0.516</v>
       </c>
       <c r="F7" t="n">
-        <v>0.539</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.513</v>
+        <v>0.538</v>
       </c>
       <c r="H7" t="n">
-        <v>0.535</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8">
